--- a/biology/Zoologie/Cerf_des_Keys/Cerf_des_Keys.xlsx
+++ b/biology/Zoologie/Cerf_des_Keys/Cerf_des_Keys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odocoileus virginianus clavium
 Le Cerf des Keys (Odocoileus virginianus clavium), ou Cerf à queue blanche des Keys est une sous-espèce du Cerf de Virginie. Leur nom vient de l'archipel de Floride d'où ils sont endémiques : l'archipel des Keys.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des cerfs nains : les mâles adultes pèsent de 25 à 34 kg pour une hauteur au garrot de 76 cm. Les femelles adultes pèsent de 20 à 29 kg pour une hauteur au garrot de 66 cm.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire et menaces de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la glaciation du Wisconsin ces cerfs se seraient retrouvés isolés sur des îlots, et auraient donc évolué différemment.
 La référence écrite la plus ancienne connue du Cerf des Keys vient des écrits de Hernando de Escalante Fontaneda, un survivant d'un naufrage espagnol qui vécut parmi les Amérindiens de Floride dans les années 1550.
